--- a/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,94</t>
+          <t>-26,43; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,21</t>
+          <t>-10,71; 28,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,02</t>
+          <t>-13,26; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,89</t>
+          <t>-5,95; 12,16</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>346,45%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>483,29%</t>
+          <t>48,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,42%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>25,78%</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 677,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,37; 696,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 547,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 628,78</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -0,14</t>
+          <t>-3,65; 3,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,29</t>
+          <t>-3,57; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,97</t>
+          <t>-0,01; 4,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,23</t>
+          <t>0,2; 6,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,04</t>
+          <t>-0,96; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,05</t>
+          <t>-0,65; 3,89</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-75,83%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,15%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>170,42%</t>
+          <t>346,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>231,3%</t>
+          <t>483,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-48,74%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>84,48%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,12</t>
+          <t>-100,0; 677,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 123,9</t>
+          <t>-86,37; 696,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-91,11; 75,51</t>
+          <t>-49,7; 547,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,15; 158,86</t>
+          <t>-45,65; 628,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,17; 1,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 0,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 0,0</t>
+          <t>-4,6; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 28,95</t>
+          <t>-2,75; 1,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 0,0</t>
+          <t>-3,33; 0,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 12,16</t>
+          <t>-2,95; 0,93</t>
         </is>
       </c>
     </row>
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-73,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>-48,26%</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,09</t>
+          <t>-9,96; -0,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,9</t>
+          <t>-7,08; 3,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,0</t>
+          <t>-1,04; 5,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,8</t>
+          <t>-0,69; 5,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,44</t>
+          <t>-4,29; 1,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,93</t>
+          <t>-2,94; 3,05</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-63,74%</t>
+          <t>-75,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-64,94%</t>
+          <t>-25,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>170,42%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>231,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-73,41%</t>
+          <t>-48,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-48,26%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 27,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,09; 123,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,11; 75,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,15; 158,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 0,0</t>
+          <t>-25,11; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 28,95</t>
+          <t>-10,51; 26,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 0,0</t>
+          <t>-14,59; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 12,16</t>
+          <t>-5,97; 11,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 7,87</t>
+          <t>-2,82; 6,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,86</t>
+          <t>-3,7; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 3,09</t>
+          <t>-7,46; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 5,01</t>
+          <t>-6,73; 4,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,11</t>
+          <t>-3,21; 3,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,12</t>
+          <t>-3,68; 2,9</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,14; 475,24</t>
+          <t>-84,18; 516,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 408,59</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,09</t>
+          <t>-4,05; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,57</t>
+          <t>-3,58; 3,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,94</t>
+          <t>0,02; 5,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,21</t>
+          <t>0,25; 6,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,02</t>
+          <t>-1,18; 2,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,89</t>
+          <t>-0,83; 3,5</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 677,52</t>
+          <t>-100,0; 445,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,37; 696,51</t>
+          <t>-86,21; 603,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 547,74</t>
+          <t>-59,59; 437,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 628,78</t>
+          <t>-49,51; 428,7</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,09</t>
+          <t>-4,89; 0,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,9</t>
+          <t>-5,22; 0,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,0</t>
+          <t>-5,13; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,8</t>
+          <t>-2,78; 1,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,44</t>
+          <t>-3,36; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,93</t>
+          <t>-2,94; 1,1</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -0,14</t>
+          <t>-9,66; -0,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,29</t>
+          <t>-6,56; 4,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,97</t>
+          <t>-0,7; 5,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,23</t>
+          <t>-0,71; 5,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,04</t>
+          <t>-4,04; 0,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,05</t>
+          <t>-2,68; 3,18</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,12</t>
+          <t>-100,0; 53,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 123,9</t>
+          <t>-75,56; 162,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,11; 75,51</t>
+          <t>-91,3; 60,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,15; 158,86</t>
+          <t>-62,65; 180,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,79</t>
+          <t>-3,13; 0,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,56</t>
+          <t>-2,48; 1,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,79</t>
+          <t>-1,25; 1,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,06</t>
+          <t>-0,53; 3,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,73</t>
+          <t>-1,69; 0,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,51</t>
+          <t>-1,0; 1,7</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 40,49</t>
+          <t>-73,9; 49,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 83,44</t>
+          <t>-64,81; 75,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 313,53</t>
+          <t>-63,02; 290,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 454,94</t>
+          <t>-31,27; 498,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 48,28</t>
+          <t>-58,79; 57,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 94,41</t>
+          <t>-37,95; 108,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 0,0</t>
+          <t>-26,06; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 26,16</t>
+          <t>-10,57; 27,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 0,0</t>
+          <t>-14,47; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 11,5</t>
+          <t>-6,04; 11,62</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 6,83</t>
+          <t>-2,72; 7,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,92</t>
+          <t>-3,84; 4,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 2,35</t>
+          <t>-7,36; 2,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,91</t>
+          <t>-5,73; 4,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,71</t>
+          <t>-3,5; 3,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,9</t>
+          <t>-3,49; 3,51</t>
         </is>
       </c>
     </row>
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,18; 516,64</t>
+          <t>-86,54; 594,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 371,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,0</t>
+          <t>-3,64; 2,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,61</t>
+          <t>-3,1; 3,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 5,32</t>
+          <t>-0,46; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,08</t>
+          <t>0,2; 5,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,97</t>
+          <t>-0,97; 3,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,5</t>
+          <t>-0,65; 3,73</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 445,63</t>
+          <t>-85,36; 486,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,21; 603,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 437,76</t>
+          <t>-52,06; 529,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,51; 428,7</t>
+          <t>-46,43; 541,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 0,86</t>
+          <t>-4,66; 1,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 0,8</t>
+          <t>-4,93; 1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,0</t>
+          <t>-4,58; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,81</t>
+          <t>-2,75; 1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,43</t>
+          <t>-3,22; 0,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,1</t>
+          <t>-2,94; 1,04</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -0,67</t>
+          <t>-9,95; -0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 4,06</t>
+          <t>-6,84; 4,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,74</t>
+          <t>-0,9; 5,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 5,5</t>
+          <t>-0,7; 5,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,91</t>
+          <t>-4,23; 1,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,18</t>
+          <t>-2,78; 2,96</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 53,72</t>
+          <t>-100,0; 22,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 162,06</t>
+          <t>-78,04; 149,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,3; 60,92</t>
+          <t>-89,01; 100,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 180,35</t>
+          <t>-63,73; 157,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,62</t>
+          <t>-3,21; 0,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,43</t>
+          <t>-2,61; 1,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,94</t>
+          <t>-1,24; 1,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,27</t>
+          <t>-0,43; 3,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,72</t>
+          <t>-1,67; 0,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,7</t>
+          <t>-1,21; 1,6</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 49,8</t>
+          <t>-75,69; 36,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 75,53</t>
+          <t>-64,1; 62,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 290,39</t>
+          <t>-68,26; 261,97</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 498,18</t>
+          <t>-28,2; 446,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 57,1</t>
+          <t>-57,54; 52,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 108,21</t>
+          <t>-45,38; 95,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; 5,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 0,0</t>
+          <t>-2,26; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 27,33</t>
+          <t>-3,13; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 0,0</t>
+          <t>-3,35; 2,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 11,62</t>
+          <t>-3,41; 3,78</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>-24,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>-8,62%</t>
         </is>
       </c>
     </row>
@@ -720,34 +720,34 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 542,78</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,07; 349,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 7,71</t>
+          <t>-0,01; 4,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,26</t>
+          <t>0,2; 6,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 2,97</t>
+          <t>-3,65; 3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,82</t>
+          <t>-3,57; 3,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,9</t>
+          <t>-0,96; 3,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,51</t>
+          <t>-0,65; 3,89</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>346,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,81%</t>
+          <t>483,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,11%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,21%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>84,48%</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 677,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,37; 696,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,54; 594,04</t>
+          <t>-49,7; 547,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 371,92</t>
+          <t>-45,65; 628,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,99</t>
+          <t>-4,6; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,13</t>
+          <t>-2,75; 1,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,78</t>
+          <t>-5,17; 1,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,97</t>
+          <t>-5,2; 0,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,23</t>
+          <t>-3,33; 0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,73</t>
+          <t>-2,95; 0,93</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>346,45%</t>
+          <t>-63,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>483,29%</t>
+          <t>-64,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,42%</t>
+          <t>-73,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>-48,26%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 486,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 529,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 541,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,06</t>
+          <t>-1,04; 5,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,03</t>
+          <t>-0,69; 5,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,0</t>
+          <t>-9,96; -0,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,82</t>
+          <t>-7,08; 3,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,44</t>
+          <t>-4,29; 1,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,04</t>
+          <t>-2,94; 3,05</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-63,74%</t>
+          <t>170,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-64,94%</t>
+          <t>231,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-75,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-25,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-73,41%</t>
+          <t>-48,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-48,26%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -1193,29 +1193,29 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 27,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,09; 123,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,11; 75,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,15; 158,86</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -0,77</t>
+          <t>-1,17; 1,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 4,16</t>
+          <t>-0,49; 3,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,08</t>
+          <t>-3,14; 0,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,41</t>
+          <t>-2,63; 1,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,25</t>
+          <t>-1,69; 0,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,96</t>
+          <t>-1,08; 1,51</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-75,83%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-25,15%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>170,42%</t>
+          <t>-40,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>231,3%</t>
+          <t>-21,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-48,74%</t>
+          <t>-22,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>10,66%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 22,54</t>
+          <t>-62,92; 313,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 149,85</t>
+          <t>-37,11; 454,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,29; 40,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,26; 83,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,01; 100,75</t>
+          <t>-60,39; 48,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 157,35</t>
+          <t>-37,48; 94,41</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 0,45</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 1,31</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 1,9</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 3,02</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 0,8</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 1,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-40,5%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-21,11%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>82,66%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-22,9%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-75,69; 36,29</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-64,1; 62,77</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-68,26; 261,97</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-28,2; 446,67</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-57,54; 52,47</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-45,38; 95,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
